--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/10/seed5/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.11059999999999</v>
+        <v>12.15279999999999</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.81849999999999</v>
+        <v>12.0676</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.48749999999999</v>
+        <v>-10.92619999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.84740000000002</v>
+        <v>-21.98400000000001</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.83760000000001</v>
+        <v>-13.30560000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.79419999999999</v>
+        <v>-11.81389999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.99969999999999</v>
+        <v>13.20349999999999</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.64379999999999</v>
+        <v>12.69449999999999</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.70319999999999</v>
+        <v>-10.84949999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.53789999999999</v>
+        <v>12.75489999999999</v>
       </c>
     </row>
     <row r="25">
